--- a/examples/sbtab-sbml/simple_examples/2.xlsx
+++ b/examples/sbtab-sbml/simple_examples/2.xlsx
@@ -7,62 +7,60 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="!_Table of contents" sheetId="1" r:id="rId1"/>
-    <sheet name="!Compartment" sheetId="2" r:id="rId2"/>
-    <sheet name="!Compound" sheetId="3" r:id="rId3"/>
-    <sheet name="!Definition" sheetId="4" r:id="rId4"/>
-    <sheet name="!Enzyme" sheetId="5" r:id="rId5"/>
-    <sheet name="!FbcObjective" sheetId="6" r:id="rId6"/>
-    <sheet name="!Gene" sheetId="7" r:id="rId7"/>
-    <sheet name="!Layout" sheetId="8" r:id="rId8"/>
-    <sheet name="!Measurement" sheetId="9" r:id="rId9"/>
-    <sheet name="!PbConfig" sheetId="10" r:id="rId10"/>
-    <sheet name="!Position" sheetId="11" r:id="rId11"/>
-    <sheet name="!Protein" sheetId="12" r:id="rId12"/>
-    <sheet name="!Quantity" sheetId="13" r:id="rId13"/>
-    <sheet name="!QuantityInfo" sheetId="14" r:id="rId14"/>
-    <sheet name="!QuantityMatrix" sheetId="15" r:id="rId15"/>
-    <sheet name="!Reaction" sheetId="16" r:id="rId16"/>
-    <sheet name="!ReactionStoichiometry" sheetId="17" r:id="rId17"/>
-    <sheet name="!Regulator" sheetId="18" r:id="rId18"/>
-    <sheet name="!Relation" sheetId="19" r:id="rId19"/>
-    <sheet name="!Relationship" sheetId="20" r:id="rId20"/>
-    <sheet name="!SparseMatrix" sheetId="21" r:id="rId21"/>
-    <sheet name="!SparseMatrixColumn" sheetId="22" r:id="rId22"/>
-    <sheet name="!SparseMatrixOrdered" sheetId="23" r:id="rId23"/>
-    <sheet name="!SparseMatrixRow" sheetId="24" r:id="rId24"/>
-    <sheet name="!StoichiometricMatrix" sheetId="25" r:id="rId25"/>
-    <sheet name="!rxnconContingencyList" sheetId="26" r:id="rId26"/>
-    <sheet name="!rxnconReactionList" sheetId="27" r:id="rId27"/>
+    <sheet name="!Compartment" sheetId="1" r:id="rId1"/>
+    <sheet name="!Compound" sheetId="2" r:id="rId2"/>
+    <sheet name="!Definition" sheetId="3" r:id="rId3"/>
+    <sheet name="!Enzyme" sheetId="4" r:id="rId4"/>
+    <sheet name="!FbcObjective" sheetId="5" r:id="rId5"/>
+    <sheet name="!Gene" sheetId="6" r:id="rId6"/>
+    <sheet name="!Layout" sheetId="7" r:id="rId7"/>
+    <sheet name="!Measurement" sheetId="8" r:id="rId8"/>
+    <sheet name="!PbConfig" sheetId="9" r:id="rId9"/>
+    <sheet name="!Position" sheetId="10" r:id="rId10"/>
+    <sheet name="!Protein" sheetId="11" r:id="rId11"/>
+    <sheet name="!Quantity" sheetId="12" r:id="rId12"/>
+    <sheet name="!QuantityInfo" sheetId="13" r:id="rId13"/>
+    <sheet name="!QuantityMatrix" sheetId="14" r:id="rId14"/>
+    <sheet name="!Reaction" sheetId="15" r:id="rId15"/>
+    <sheet name="!ReactionStoichiometry" sheetId="16" r:id="rId16"/>
+    <sheet name="!Regulator" sheetId="17" r:id="rId17"/>
+    <sheet name="!Relation" sheetId="18" r:id="rId18"/>
+    <sheet name="!Relationship" sheetId="19" r:id="rId19"/>
+    <sheet name="!SparseMatrix" sheetId="20" r:id="rId20"/>
+    <sheet name="!SparseMatrixColumn" sheetId="21" r:id="rId21"/>
+    <sheet name="!SparseMatrixOrdered" sheetId="22" r:id="rId22"/>
+    <sheet name="!SparseMatrixRow" sheetId="23" r:id="rId23"/>
+    <sheet name="!StoichiometricMatrix" sheetId="24" r:id="rId24"/>
+    <sheet name="!rxnconContingencyList" sheetId="25" r:id="rId25"/>
+    <sheet name="!rxnconReactionList" sheetId="26" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!_Table of contents'!$A$2:$C$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!Compartment'!$A$2:$T$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!Compound'!$A$2:$AI$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!Definition'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!Enzyme'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!FbcObjective'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!Gene'!$A$2:$V$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!Layout'!$A$2:$M$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!Measurement'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!PbConfig'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!Position'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!Protein'!$A$2:$O$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!Quantity'!$A$2:$BW$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!QuantityInfo'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!QuantityMatrix'!$A$2:$AW$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!Reaction'!$A$2:$AU$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!ReactionStoichiometry'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!Regulator'!$A$2:$Q$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!Relation'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!Relationship'!$A$2:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!rxnconContingencyList'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="26" hidden="1">'!rxnconReactionList'!$A$2:$L$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!SparseMatrix'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!SparseMatrixColumn'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!SparseMatrixOrdered'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!SparseMatrixRow'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!StoichiometricMatrix'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!Compartment'!$A$2:$T$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!Compound'!$A$2:$AI$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!Definition'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!Enzyme'!$A$2:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!FbcObjective'!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!Gene'!$A$2:$V$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!Layout'!$A$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!Measurement'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!PbConfig'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!Position'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!Protein'!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!Quantity'!$A$2:$BW$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!QuantityInfo'!$A$2:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!QuantityMatrix'!$A$2:$AW$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!Reaction'!$A$2:$AU$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!ReactionStoichiometry'!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!Regulator'!$A$2:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!Relation'!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!Relationship'!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!rxnconContingencyList'!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!rxnconReactionList'!$A$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!SparseMatrix'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!SparseMatrixColumn'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!SparseMatrixOrdered'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!SparseMatrixRow'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!StoichiometricMatrix'!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -6342,191 +6340,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="317">
-  <si>
-    <t>'!Compartment'!A1</t>
-  </si>
-  <si>
-    <t>'!Compound'!A1</t>
-  </si>
-  <si>
-    <t>'!Definition'!A1</t>
-  </si>
-  <si>
-    <t>'!Enzyme'!A1</t>
-  </si>
-  <si>
-    <t>'!FbcObjective'!A1</t>
-  </si>
-  <si>
-    <t>'!Gene'!A1</t>
-  </si>
-  <si>
-    <t>'!Layout'!A1</t>
-  </si>
-  <si>
-    <t>'!Measurement'!A1</t>
-  </si>
-  <si>
-    <t>'!PbConfig'!A1</t>
-  </si>
-  <si>
-    <t>'!Position'!A1</t>
-  </si>
-  <si>
-    <t>'!Protein'!A1</t>
-  </si>
-  <si>
-    <t>'!Quantity'!A1</t>
-  </si>
-  <si>
-    <t>'!QuantityInfo'!A1</t>
-  </si>
-  <si>
-    <t>'!QuantityMatrix'!A1</t>
-  </si>
-  <si>
-    <t>'!Reaction'!A1</t>
-  </si>
-  <si>
-    <t>'!ReactionStoichiometry'!A1</t>
-  </si>
-  <si>
-    <t>'!Regulator'!A1</t>
-  </si>
-  <si>
-    <t>'!Relation'!A1</t>
-  </si>
-  <si>
-    <t>'!Relationship'!A1</t>
-  </si>
-  <si>
-    <t>'!SparseMatrix'!A1</t>
-  </si>
-  <si>
-    <t>'!SparseMatrixColumn'!A1</t>
-  </si>
-  <si>
-    <t>'!SparseMatrixOrdered'!A1</t>
-  </si>
-  <si>
-    <t>'!SparseMatrixRow'!A1</t>
-  </si>
-  <si>
-    <t>'!StoichiometricMatrix'!A1</t>
-  </si>
-  <si>
-    <t>'!rxnconContingencyList'!A1</t>
-  </si>
-  <si>
-    <t>'!rxnconReactionList'!A1</t>
-  </si>
-  <si>
-    <t>!!ObjTables TableType='TableOfContents' Description='Table of contents' Date='2019-09-23 11:04:09' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!Table</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="262">
+  <si>
+    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 02:12:16' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!Comment</t>
+  </si>
+  <si>
+    <t>!ReferenceName</t>
+  </si>
+  <si>
+    <t>!ReferencePubMed</t>
+  </si>
+  <si>
+    <t>!ReferenceDOI</t>
   </si>
   <si>
     <t>!Description</t>
   </si>
   <si>
-    <t>!Number of objects</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Compound</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Enzyme</t>
-  </si>
-  <si>
-    <t>FbcObjective</t>
-  </si>
-  <si>
-    <t>Gene</t>
-  </si>
-  <si>
-    <t>Layout</t>
-  </si>
-  <si>
-    <t>Measurement</t>
-  </si>
-  <si>
-    <t>PbConfig</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>QuantityInfo</t>
-  </si>
-  <si>
-    <t>QuantityMatrix</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>ReactionStoichiometry</t>
-  </si>
-  <si>
-    <t>Regulator</t>
-  </si>
-  <si>
-    <t>Relation</t>
-  </si>
-  <si>
-    <t>Relationship</t>
-  </si>
-  <si>
-    <t>SparseMatrix</t>
-  </si>
-  <si>
-    <t>SparseMatrixColumn</t>
-  </si>
-  <si>
-    <t>SparseMatrixOrdered</t>
-  </si>
-  <si>
-    <t>SparseMatrixRow</t>
-  </si>
-  <si>
-    <t>StoichiometricMatrix</t>
-  </si>
-  <si>
-    <t>rxnconContingencyList</t>
-  </si>
-  <si>
-    <t>rxnconReactionList</t>
-  </si>
-  <si>
-    <t>!!ObjTables TableType='Data' ModelId='Compartment' ModelName='Compartment' Date='2019-09-23 11:04:09' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!Comment</t>
-  </si>
-  <si>
-    <t>!ReferenceName</t>
-  </si>
-  <si>
-    <t>!ReferencePubMed</t>
-  </si>
-  <si>
-    <t>!ReferenceDOI</t>
-  </si>
-  <si>
     <t>!Name</t>
   </si>
   <si>
@@ -6572,7 +6405,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Compound' ModelName='Compound' Date='2019-09-23 11:04:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 02:12:16' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6665,7 +6498,7 @@
     <t>C00008</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Definition' ModelName='Definition' Date='2019-09-23 11:04:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6680,7 +6513,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Enzyme' ModelName='Enzyme' Date='2019-09-23 11:04:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6701,7 +6534,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='FbcObjective' ModelName='FbcObjective' Date='2019-09-23 11:04:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6716,7 +6549,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Gene' ModelName='Gene' Date='2019-09-23 11:04:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6746,7 +6579,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Layout' ModelName='Layout' Date='2019-09-23 11:04:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6782,7 +6615,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Measurement' ModelName='Measurement' Date='2019-09-23 11:04:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6794,7 +6627,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='PbConfig' ModelName='PbConfig' Date='2019-09-23 11:04:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6803,16 +6636,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Position' ModelName='Position' Date='2019-09-23 11:04:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Protein' ModelName='Protein' Date='2019-09-23 11:04:09' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables TableType='Data' ModelId='Quantity' ModelName='Quantity' Date='2019-09-23 11:04:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7013,7 +6846,7 @@
     <t>...</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='QuantityInfo' ModelName='QuantityInfo' Date='2019-09-23 11:04:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7031,7 +6864,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='QuantityMatrix' ModelName='QuantityMatrix' Date='2019-09-23 11:04:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7070,7 +6903,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Reaction' ModelName='Reaction' Date='2019-09-23 11:04:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7166,7 +6999,7 @@
     <t>R01015</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='ReactionStoichiometry' ModelName='ReactionStoichiometry' Date='2019-09-23 11:04:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7178,7 +7011,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Regulator' ModelName='Regulator' Date='2019-09-23 11:04:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7190,7 +7023,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Relation' ModelName='Relation' Date='2019-09-23 11:04:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7205,13 +7038,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Relationship' ModelName='Relationship' Date='2019-09-23 11:04:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='SparseMatrix' ModelName='SparseMatrix' Date='2019-09-23 11:04:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7220,13 +7053,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='SparseMatrixColumn' ModelName='SparseMatrixColumn' Date='2019-09-23 11:04:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='SparseMatrixOrdered' ModelName='SparseMatrixOrdered' Date='2019-09-23 11:04:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7235,19 +7068,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='SparseMatrixRow' ModelName='SparseMatrixRow' Date='2019-09-23 11:04:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='StoichiometricMatrix' ModelName='StoichiometricMatrix' Date='2019-09-23 11:04:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='rxnconContingencyList' ModelName='rxnconContingencyList' Date='2019-09-23 11:04:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 02:12:18' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7268,7 +7101,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='rxnconReactionList' ModelName='rxnconReactionList' Date='2019-09-23 11:04:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 02:12:18' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -7666,7 +7499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -7675,360 +7508,161 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.01" customHeight="1">
+    <row r="1" spans="1:20" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="15.01" customHeight="1">
+    <row r="2" spans="1:20" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4">
-        <f>COUNTA('!Compartment'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
-        <f>COUNTA('!Compound'!A3:A1048576)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
-        <f>COUNTA('!Definition'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
-        <f>COUNTA('!Enzyme'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
-        <f>COUNTA('!FbcObjective'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
-        <f>COUNTA('!Gene'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4">
-        <f>COUNTA('!Layout'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4">
-        <f>COUNTA('!Measurement'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4">
-        <f>COUNTA('!PbConfig'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4">
-        <f>COUNTA('!Position'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4">
-        <f>COUNTA('!Protein'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4">
-        <f>COUNTA('!Quantity'!A3:A1048576)</f>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4">
-        <f>COUNTA('!QuantityInfo'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4">
-        <f>COUNTA('!QuantityMatrix'!A3:A1048576)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4">
-        <f>COUNTA('!Reaction'!A3:A1048576)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4">
-        <f>COUNTA('!ReactionStoichiometry'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4">
-        <f>COUNTA('!Regulator'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4">
-        <f>COUNTA('!Relation'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4">
-        <f>COUNTA('!Relationship'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4">
-        <f>COUNTA('!SparseMatrix'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4">
-        <f>COUNTA('!SparseMatrixColumn'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4">
-        <f>COUNTA('!SparseMatrixOrdered'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4">
-        <f>COUNTA('!SparseMatrixRow'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4">
-        <f>COUNTA('!StoichiometricMatrix'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4">
-        <f>COUNTA('!rxnconContingencyList'!A3:A1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4">
-        <f>COUNTA('!rxnconReactionList'!A3:A1048576)</f>
-        <v>0</v>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:C28"/>
-  <hyperlinks>
-    <hyperlink ref="A3" location="'!Compartment'!A1" tooltip="Click to view compartment" display="'!Compartment'!A1"/>
-    <hyperlink ref="A4" location="'!Compound'!A1" tooltip="Click to view compound" display="'!Compound'!A1"/>
-    <hyperlink ref="A5" location="'!Definition'!A1" tooltip="Click to view definition" display="'!Definition'!A1"/>
-    <hyperlink ref="A6" location="'!Enzyme'!A1" tooltip="Click to view enzyme" display="'!Enzyme'!A1"/>
-    <hyperlink ref="A7" location="'!FbcObjective'!A1" tooltip="Click to view fbcobjective" display="'!FbcObjective'!A1"/>
-    <hyperlink ref="A8" location="'!Gene'!A1" tooltip="Click to view gene" display="'!Gene'!A1"/>
-    <hyperlink ref="A9" location="'!Layout'!A1" tooltip="Click to view layout" display="'!Layout'!A1"/>
-    <hyperlink ref="A10" location="'!Measurement'!A1" tooltip="Click to view measurement" display="'!Measurement'!A1"/>
-    <hyperlink ref="A11" location="'!PbConfig'!A1" tooltip="Click to view pbconfig" display="'!PbConfig'!A1"/>
-    <hyperlink ref="A12" location="'!Position'!A1" tooltip="Click to view position" display="'!Position'!A1"/>
-    <hyperlink ref="A13" location="'!Protein'!A1" tooltip="Click to view protein" display="'!Protein'!A1"/>
-    <hyperlink ref="A14" location="'!Quantity'!A1" tooltip="Click to view quantity" display="'!Quantity'!A1"/>
-    <hyperlink ref="A15" location="'!QuantityInfo'!A1" tooltip="Click to view quantityinfo" display="'!QuantityInfo'!A1"/>
-    <hyperlink ref="A16" location="'!QuantityMatrix'!A1" tooltip="Click to view quantitymatrix" display="'!QuantityMatrix'!A1"/>
-    <hyperlink ref="A17" location="'!Reaction'!A1" tooltip="Click to view reaction" display="'!Reaction'!A1"/>
-    <hyperlink ref="A18" location="'!ReactionStoichiometry'!A1" tooltip="Click to view reactionstoichiometry" display="'!ReactionStoichiometry'!A1"/>
-    <hyperlink ref="A19" location="'!Regulator'!A1" tooltip="Click to view regulator" display="'!Regulator'!A1"/>
-    <hyperlink ref="A20" location="'!Relation'!A1" tooltip="Click to view relation" display="'!Relation'!A1"/>
-    <hyperlink ref="A21" location="'!Relationship'!A1" tooltip="Click to view relationship" display="'!Relationship'!A1"/>
-    <hyperlink ref="A22" location="'!SparseMatrix'!A1" tooltip="Click to view sparsematrix" display="'!SparseMatrix'!A1"/>
-    <hyperlink ref="A23" location="'!SparseMatrixColumn'!A1" tooltip="Click to view sparsematrixcolumn" display="'!SparseMatrixColumn'!A1"/>
-    <hyperlink ref="A24" location="'!SparseMatrixOrdered'!A1" tooltip="Click to view sparsematrixordered" display="'!SparseMatrixOrdered'!A1"/>
-    <hyperlink ref="A25" location="'!SparseMatrixRow'!A1" tooltip="Click to view sparsematrixrow" display="'!SparseMatrixRow'!A1"/>
-    <hyperlink ref="A26" location="'!StoichiometricMatrix'!A1" tooltip="Click to view stoichiometricmatrix" display="'!StoichiometricMatrix'!A1"/>
-    <hyperlink ref="A27" location="'!rxnconContingencyList'!A1" tooltip="Click to view rxnconcontingencylist" display="'!rxnconContingencyList'!A1"/>
-    <hyperlink ref="A28" location="'!rxnconReactionList'!A1" tooltip="Click to view rxnconreactionlist" display="'!rxnconReactionList'!A1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:B2"/>
-  <dataValidations count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Option" error="Which option is addressed&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Option" prompt="Which option is addressed&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="What value is the option set to&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Value" prompt="What value is the option set to&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+  <autoFilter ref="A2:T2"/>
+  <dataValidations count="20">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceName" error="Reference title, authors, etc. (as free text)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceName" prompt="Reference title, authors, etc. (as free text)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferencePubMed" error="Reference PubMed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferencePubMed" prompt="Reference PubMed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceDOI" error="Reference DOI&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceDOI" prompt="Reference DOI&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Description" error="Description of the row element&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Description" prompt="Description of the row element&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E2:E3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Entity name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Entity name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F2:F3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MiriamAnnotations" error="Entity ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="MiriamAnnotations" prompt="Entity ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Biochemical type of entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Type" prompt="Biochemical type of entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Symbol" error="Short symbol (e.g. gene symbol)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Symbol" prompt="Short symbol (e.g. gene symbol)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I2:I3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionX" error="x coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionX" prompt="x coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="J2:J3">
+      <formula1>-1e+100</formula1>
+      <formula2>1e+100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionY" error="y coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionY" prompt="y coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="K2:K3">
+      <formula1>-1e+100</formula1>
+      <formula2>1e+100</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Compartment shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Compartment shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L2:L3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBML:compartment:id" error="SBML compartment ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBML:compartment:id" prompt="SBML compartment ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="M2:M3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment" error="Surrounding compartment (short)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment" prompt="Surrounding compartment (short)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="N2:N3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment:SBML:compar ..." error="Surrounding compartment (name)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment:SBML:compar ..." prompt="Surrounding compartment (name)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="O2:O3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Size" error="Compartment size&#10;&#10;Value must be a float or blank." promptTitle="Size" prompt="Compartment size&#10;&#10;Enter a float or blank." sqref="P2:P3">
+      <formula1>-1e+100</formula1>
+      <formula2>1e+100</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unit" error="Physical unit&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Unit" prompt="Physical unit&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="Q2:Q3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBOTerm" error="SBO term of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBOTerm" prompt="SBO term of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="R2:R3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="S2:S3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers:sbo.go" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers:sbo.go" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="T2:T3">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
@@ -8037,7 +7671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -8054,20 +7688,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -8091,7 +7725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -8108,7 +7742,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8127,49 +7761,49 @@
     </row>
     <row r="2" spans="1:15" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="N2" s="3" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -8231,7 +7865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BW6"/>
   <sheetViews>
@@ -8248,7 +7882,7 @@
   <sheetData>
     <row r="1" spans="1:75" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8327,229 +7961,229 @@
     </row>
     <row r="2" spans="1:75" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BU2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="BI2" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="BJ2" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="BL2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="BN2" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="BP2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="BQ2" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="BR2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="BS2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="BT2" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="BU2" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="BV2" s="3" t="s">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="BW2" s="3" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:75" ht="15.01" customHeight="1">
@@ -8565,13 +8199,13 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="Q3" s="4">
         <v>156</v>
@@ -8583,12 +8217,12 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
@@ -8600,11 +8234,11 @@
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
@@ -8658,13 +8292,13 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="4">
         <v>0.96</v>
@@ -8676,12 +8310,12 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -8693,11 +8327,11 @@
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="AL4" s="4"/>
       <c r="AM4" s="4" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
@@ -8751,13 +8385,13 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="4">
         <v>0.13</v>
@@ -8769,12 +8403,12 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
@@ -8786,11 +8420,11 @@
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
@@ -8844,13 +8478,13 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="Q6" s="4">
         <v>1.5</v>
@@ -8862,12 +8496,12 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
@@ -8879,11 +8513,11 @@
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="AL6" s="4"/>
       <c r="AM6" s="4" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
@@ -9183,7 +8817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -9200,7 +8834,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9223,61 +8857,61 @@
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -9353,7 +8987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AW4"/>
   <sheetViews>
@@ -9370,7 +9004,7 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9423,151 +9057,151 @@
     </row>
     <row r="2" spans="1:49" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="AL2" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="AT2" s="3" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:49" ht="15.01" customHeight="1">
@@ -9599,7 +9233,7 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
@@ -9654,7 +9288,7 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
@@ -9855,7 +9489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU5"/>
   <sheetViews>
@@ -9872,7 +9506,7 @@
   <sheetData>
     <row r="1" spans="1:47" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9923,145 +9557,145 @@
     </row>
     <row r="2" spans="1:47" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="AE2" s="3" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="15.01" customHeight="1">
@@ -10078,13 +9712,13 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -10127,7 +9761,7 @@
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
       <c r="AN3" s="4" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
@@ -10139,7 +9773,7 @@
     </row>
     <row r="4" spans="1:47" ht="15.01" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -10202,13 +9836,13 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -10251,7 +9885,7 @@
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
@@ -10415,7 +10049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -10432,7 +10066,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10442,22 +10076,22 @@
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -10488,7 +10122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -10505,7 +10139,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10526,55 +10160,55 @@
     </row>
     <row r="2" spans="1:17" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -10640,7 +10274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -10657,7 +10291,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10671,34 +10305,34 @@
     </row>
     <row r="2" spans="1:10" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -10742,181 +10376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="20" width="15.7109375" customWidth="1"/>
-    <col min="21" max="16384" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:T2"/>
-  <dataValidations count="20">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceName" error="Reference title, authors, etc. (as free text)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceName" prompt="Reference title, authors, etc. (as free text)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferencePubMed" error="Reference PubMed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferencePubMed" prompt="Reference PubMed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceDOI" error="Reference DOI&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceDOI" prompt="Reference DOI&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Description" error="Description of the row element&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Description" prompt="Description of the row element&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E2:E3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Entity name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Entity name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F2:F3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MiriamAnnotations" error="Entity ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="MiriamAnnotations" prompt="Entity ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Biochemical type of entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Type" prompt="Biochemical type of entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Symbol" error="Short symbol (e.g. gene symbol)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Symbol" prompt="Short symbol (e.g. gene symbol)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I2:I3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionX" error="x coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionX" prompt="x coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="J2:J3">
-      <formula1>-1e+100</formula1>
-      <formula2>1e+100</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionY" error="y coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionY" prompt="y coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="K2:K3">
-      <formula1>-1e+100</formula1>
-      <formula2>1e+100</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Compartment shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Compartment shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L2:L3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBML:compartment:id" error="SBML compartment ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBML:compartment:id" prompt="SBML compartment ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="M2:M3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment" error="Surrounding compartment (short)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment" prompt="Surrounding compartment (short)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="N2:N3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment:SBML:compar ..." error="Surrounding compartment (name)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment:SBML:compar ..." prompt="Surrounding compartment (name)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="O2:O3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Size" error="Compartment size&#10;&#10;Value must be a float or blank." promptTitle="Size" prompt="Compartment size&#10;&#10;Enter a float or blank." sqref="P2:P3">
-      <formula1>-1e+100</formula1>
-      <formula2>1e+100</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unit" error="Physical unit&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Unit" prompt="Physical unit&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="Q2:Q3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBOTerm" error="SBO term of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBOTerm" prompt="SBO term of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="R2:R3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="S2:S3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers:sbo.go" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers:sbo.go" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="T2:T3">
-      <formula1>255</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -10933,7 +10393,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10944,25 +10404,25 @@
     </row>
     <row r="2" spans="1:7" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -10997,475 +10457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:C2"/>
-  <dataValidations count="3">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnID" error="Column identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnID" prompt="Column identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value&#10;&#10;Value must be a float or blank." promptTitle="Value" prompt="Value&#10;&#10;Enter a float or blank." sqref="C2:C3">
-      <formula1>-1e+100</formula1>
-      <formula2>1e+100</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:B2"/>
-  <dataValidations count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnID" error="Column identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnID" prompt="Column identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnString" error="JSON string describing all elements in the column&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnString" prompt="JSON string describing all elements in the column&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
-      <formula1>255</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:C2"/>
-  <dataValidations count="3">
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowNumber" error="Number of row&#10;&#10;Value must be an integer." promptTitle="RowNumber" prompt="Number of row&#10;&#10;Enter an integer." sqref="A2:A3">
-      <formula1>-32768</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnNumber" error="Number of column&#10;&#10;Value must be an integer." promptTitle="ColumnNumber" prompt="Number of column&#10;&#10;Enter an integer." sqref="B2:B3">
-      <formula1>-32768</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value&#10;&#10;Value must be a float or blank." promptTitle="Value" prompt="Value&#10;&#10;Enter a float or blank." sqref="C2:C3">
-      <formula1>-1e+100</formula1>
-      <formula2>1e+100</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:B2"/>
-  <dataValidations count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowString" error="JSON string describing all elements in the row&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowString" prompt="JSON string describing all elements in the row&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
-      <formula1>255</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="16384" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:E2"/>
-  <dataValidations count="5">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReactionID" error="Reaction shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReactionID" prompt="Reaction shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Stoichiometry" error="Stoichiometric coefficient of the reactant&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Stoichiometry" prompt="Stoichiometric coefficient of the reactant&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Substrate" error="Substrate of the reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Substrate" prompt="Substrate of the reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Product" error="Product of the reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Product" prompt="Product of the reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Location" error="Compartment for localised reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Location" prompt="Compartment for localised reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E2:E3">
-      <formula1>255</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="16384" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:H2"/>
-  <dataValidations count="8">
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UID:Contingency" error="ID for contingency&#10;&#10;Value must be an integer." promptTitle="UID:Contingency" prompt="ID for contingency&#10;&#10;Enter an integer." sqref="A2:A3">
-      <formula1>-32768</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Target" error="Contingency target&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Target" prompt="Contingency target&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Contingency" error="Contingency type&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Contingency" prompt="Contingency type&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Modifier" error="Target modifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Modifier" prompt="Target modifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reference:Identifiers:pubmed" error="Pubmed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Reference:Identifiers:pubmed" prompt="Pubmed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E2:E3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Quality" error="Contingency quality&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Quality" prompt="Contingency quality&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F2:F3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="InternalComplexID" error="Internal ID for processing&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="InternalComplexID" prompt="Internal ID for processing&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
-      <formula1>255</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="16384" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:L2"/>
-  <dataValidations count="12">
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="ID for reaction&#10;&#10;Value must be an integer." promptTitle="ID" prompt="ID for reaction&#10;&#10;Enter an integer." sqref="A2:A3">
-      <formula1>-32768</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UID:Reaction" error="Reaction string&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="UID:Reaction" prompt="Reaction string&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentA:Name" error="Name for Component A&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentA:Name" prompt="Name for Component A&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentA:Domain" error="Domain of Component A&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentA:Domain" prompt="Domain of Component A&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentA:Residue" error="Residue of Component A&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentA:Residue" prompt="Residue of Component A&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E2:E3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reaction" error="Reaction type&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Reaction" prompt="Reaction type&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F2:F3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentB:Name" error="Name for Component B&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentB:Name" prompt="Name for Component B&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentB:Domain" error="Domain of Component B&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentB:Domain" prompt="Domain of Component B&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentB:Residue" error="Residue of Component B&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentB:Residue" prompt="Residue of Component B&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I2:I3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Quality" error="Quality of reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Quality" prompt="Quality of reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="J2:J3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Literature:Identifiers:pubmed" error="Pubmed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Literature:Identifiers:pubmed" prompt="Pubmed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="K2:K3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L2:L3">
-      <formula1>255</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI5"/>
   <sheetViews>
@@ -11482,7 +10474,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11521,109 +10513,109 @@
     </row>
     <row r="2" spans="1:35" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="U2" s="3" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15.01" customHeight="1">
@@ -11633,7 +10625,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -11641,10 +10633,10 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -11665,7 +10657,7 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
@@ -11682,7 +10674,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -11690,10 +10682,10 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -11714,7 +10706,7 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
@@ -11731,7 +10723,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -11739,10 +10731,10 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -11763,7 +10755,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
@@ -11895,7 +10887,205 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <autoFilter ref="A2:C2"/>
+  <dataValidations count="3">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnID" error="Column identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnID" prompt="Column identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value&#10;&#10;Value must be a float or blank." promptTitle="Value" prompt="Value&#10;&#10;Enter a float or blank." sqref="C2:C3">
+      <formula1>-1e+100</formula1>
+      <formula2>1e+100</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.01" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.01" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <autoFilter ref="A2:B2"/>
+  <dataValidations count="2">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnID" error="Column identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnID" prompt="Column identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnString" error="JSON string describing all elements in the column&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnString" prompt="JSON string describing all elements in the column&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+      <formula1>255</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <autoFilter ref="A2:C2"/>
+  <dataValidations count="3">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowNumber" error="Number of row&#10;&#10;Value must be an integer." promptTitle="RowNumber" prompt="Number of row&#10;&#10;Enter an integer." sqref="A2:A3">
+      <formula1>-32768</formula1>
+      <formula2>32767</formula2>
+    </dataValidation>
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnNumber" error="Number of column&#10;&#10;Value must be an integer." promptTitle="ColumnNumber" prompt="Number of column&#10;&#10;Enter an integer." sqref="B2:B3">
+      <formula1>-32768</formula1>
+      <formula2>32767</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value&#10;&#10;Value must be a float or blank." promptTitle="Value" prompt="Value&#10;&#10;Enter a float or blank." sqref="C2:C3">
+      <formula1>-1e+100</formula1>
+      <formula2>1e+100</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.01" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.01" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <autoFilter ref="A2:B2"/>
+  <dataValidations count="2">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowString" error="JSON string describing all elements in the row&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowString" prompt="JSON string describing all elements in the row&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+      <formula1>255</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -11912,7 +11102,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11921,19 +11111,289 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>245</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <autoFilter ref="A2:E2"/>
+  <dataValidations count="5">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReactionID" error="Reaction shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReactionID" prompt="Reaction shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Stoichiometry" error="Stoichiometric coefficient of the reactant&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Stoichiometry" prompt="Stoichiometric coefficient of the reactant&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Substrate" error="Substrate of the reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Substrate" prompt="Substrate of the reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Product" error="Product of the reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Product" prompt="Product of the reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Location" error="Compartment for localised reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Location" prompt="Compartment for localised reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E2:E3">
+      <formula1>255</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="16384" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.01" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.01" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <autoFilter ref="A2:H2"/>
+  <dataValidations count="8">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UID:Contingency" error="ID for contingency&#10;&#10;Value must be an integer." promptTitle="UID:Contingency" prompt="ID for contingency&#10;&#10;Enter an integer." sqref="A2:A3">
+      <formula1>-32768</formula1>
+      <formula2>32767</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Target" error="Contingency target&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Target" prompt="Contingency target&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Contingency" error="Contingency type&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Contingency" prompt="Contingency type&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Modifier" error="Target modifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Modifier" prompt="Target modifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reference:Identifiers:pubmed" error="Pubmed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Reference:Identifiers:pubmed" prompt="Pubmed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E2:E3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Quality" error="Contingency quality&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Quality" prompt="Contingency quality&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F2:F3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="InternalComplexID" error="Internal ID for processing&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="InternalComplexID" prompt="Internal ID for processing&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
+      <formula1>255</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="16384" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <autoFilter ref="A2:L2"/>
+  <dataValidations count="12">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="ID for reaction&#10;&#10;Value must be an integer." promptTitle="ID" prompt="ID for reaction&#10;&#10;Enter an integer." sqref="A2:A3">
+      <formula1>-32768</formula1>
+      <formula2>32767</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UID:Reaction" error="Reaction string&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="UID:Reaction" prompt="Reaction string&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentA:Name" error="Name for Component A&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentA:Name" prompt="Name for Component A&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentA:Domain" error="Domain of Component A&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentA:Domain" prompt="Domain of Component A&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentA:Residue" error="Residue of Component A&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentA:Residue" prompt="Residue of Component A&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E2:E3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reaction" error="Reaction type&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Reaction" prompt="Reaction type&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F2:F3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentB:Name" error="Name for Component B&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentB:Name" prompt="Name for Component B&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentB:Domain" error="Domain of Component B&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentB:Domain" prompt="Domain of Component B&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentB:Residue" error="Residue of Component B&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentB:Residue" prompt="Residue of Component B&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I2:I3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Quality" error="Quality of reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Quality" prompt="Quality of reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="J2:J3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Literature:Identifiers:pubmed" error="Pubmed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Literature:Identifiers:pubmed" prompt="Pubmed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="K2:K3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L2:L3">
+      <formula1>255</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="16384" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.01" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.01" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -11961,7 +11421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -11978,7 +11438,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12001,61 +11461,61 @@
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="S2" s="3" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -12127,7 +11587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -12144,7 +11604,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12154,22 +11614,22 @@
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -12200,7 +11660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V2"/>
   <sheetViews>
@@ -12217,7 +11677,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12243,70 +11703,70 @@
     </row>
     <row r="2" spans="1:22" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="S2" s="3" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -12387,7 +11847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -12404,7 +11864,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12421,43 +11881,43 @@
     </row>
     <row r="2" spans="1:13" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -12513,7 +11973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -12530,7 +11990,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12539,19 +11999,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -12577,4 +12037,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.01" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.01" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <autoFilter ref="A2:B2"/>
+  <dataValidations count="2">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Option" error="Which option is addressed&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Option" prompt="Which option is addressed&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="What value is the option set to&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Value" prompt="What value is the option set to&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+      <formula1>255</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/examples/sbtab-sbml/simple_examples/2.xlsx
+++ b/examples/sbtab-sbml/simple_examples/2.xlsx
@@ -7,60 +7,60 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="!Compartment" sheetId="1" r:id="rId1"/>
-    <sheet name="!Compound" sheetId="2" r:id="rId2"/>
-    <sheet name="!Definition" sheetId="3" r:id="rId3"/>
-    <sheet name="!Enzyme" sheetId="4" r:id="rId4"/>
-    <sheet name="!FbcObjective" sheetId="5" r:id="rId5"/>
-    <sheet name="!Gene" sheetId="6" r:id="rId6"/>
-    <sheet name="!Layout" sheetId="7" r:id="rId7"/>
-    <sheet name="!Measurement" sheetId="8" r:id="rId8"/>
-    <sheet name="!PbConfig" sheetId="9" r:id="rId9"/>
-    <sheet name="!Position" sheetId="10" r:id="rId10"/>
-    <sheet name="!Protein" sheetId="11" r:id="rId11"/>
-    <sheet name="!Quantity" sheetId="12" r:id="rId12"/>
-    <sheet name="!QuantityInfo" sheetId="13" r:id="rId13"/>
-    <sheet name="!QuantityMatrix" sheetId="14" r:id="rId14"/>
-    <sheet name="!Reaction" sheetId="15" r:id="rId15"/>
-    <sheet name="!ReactionStoichiometry" sheetId="16" r:id="rId16"/>
-    <sheet name="!Regulator" sheetId="17" r:id="rId17"/>
-    <sheet name="!Relation" sheetId="18" r:id="rId18"/>
-    <sheet name="!Relationship" sheetId="19" r:id="rId19"/>
-    <sheet name="!SparseMatrix" sheetId="20" r:id="rId20"/>
-    <sheet name="!SparseMatrixColumn" sheetId="21" r:id="rId21"/>
-    <sheet name="!SparseMatrixOrdered" sheetId="22" r:id="rId22"/>
-    <sheet name="!SparseMatrixRow" sheetId="23" r:id="rId23"/>
-    <sheet name="!StoichiometricMatrix" sheetId="24" r:id="rId24"/>
-    <sheet name="!rxnconContingencyList" sheetId="25" r:id="rId25"/>
-    <sheet name="!rxnconReactionList" sheetId="26" r:id="rId26"/>
+    <sheet name="!!Compartment" sheetId="1" r:id="rId1"/>
+    <sheet name="!!Compound" sheetId="2" r:id="rId2"/>
+    <sheet name="!!Definition" sheetId="3" r:id="rId3"/>
+    <sheet name="!!Enzyme" sheetId="4" r:id="rId4"/>
+    <sheet name="!!FbcObjective" sheetId="5" r:id="rId5"/>
+    <sheet name="!!Gene" sheetId="6" r:id="rId6"/>
+    <sheet name="!!Layout" sheetId="7" r:id="rId7"/>
+    <sheet name="!!Measurement" sheetId="8" r:id="rId8"/>
+    <sheet name="!!PbConfig" sheetId="9" r:id="rId9"/>
+    <sheet name="!!Position" sheetId="10" r:id="rId10"/>
+    <sheet name="!!Protein" sheetId="11" r:id="rId11"/>
+    <sheet name="!!Quantity" sheetId="12" r:id="rId12"/>
+    <sheet name="!!QuantityInfo" sheetId="13" r:id="rId13"/>
+    <sheet name="!!QuantityMatrix" sheetId="14" r:id="rId14"/>
+    <sheet name="!!Reaction" sheetId="15" r:id="rId15"/>
+    <sheet name="!!ReactionStoichiometry" sheetId="16" r:id="rId16"/>
+    <sheet name="!!Regulator" sheetId="17" r:id="rId17"/>
+    <sheet name="!!Relation" sheetId="18" r:id="rId18"/>
+    <sheet name="!!Relationship" sheetId="19" r:id="rId19"/>
+    <sheet name="!!SparseMatrix" sheetId="20" r:id="rId20"/>
+    <sheet name="!!SparseMatrixColumn" sheetId="21" r:id="rId21"/>
+    <sheet name="!!SparseMatrixOrdered" sheetId="22" r:id="rId22"/>
+    <sheet name="!!SparseMatrixRow" sheetId="23" r:id="rId23"/>
+    <sheet name="!!StoichiometricMatrix" sheetId="24" r:id="rId24"/>
+    <sheet name="!!rxnconContingencyList" sheetId="25" r:id="rId25"/>
+    <sheet name="!!rxnconReactionList" sheetId="26" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!Compartment'!$A$2:$T$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!Compound'!$A$2:$AI$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!Definition'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!Enzyme'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!FbcObjective'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!Gene'!$A$2:$V$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!Layout'!$A$2:$M$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!Measurement'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!PbConfig'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!Position'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!Protein'!$A$2:$O$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!Quantity'!$A$2:$BW$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!QuantityInfo'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!QuantityMatrix'!$A$2:$AW$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!Reaction'!$A$2:$AU$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!ReactionStoichiometry'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!Regulator'!$A$2:$Q$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!Relation'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!Relationship'!$A$2:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!rxnconContingencyList'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!rxnconReactionList'!$A$2:$L$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!SparseMatrix'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!SparseMatrixColumn'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!SparseMatrixOrdered'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!SparseMatrixRow'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!StoichiometricMatrix'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!Compartment'!$A$3:$T$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!Compound'!$A$2:$AI$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Definition'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Enzyme'!$A$2:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!FbcObjective'!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Gene'!$A$2:$V$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Layout'!$A$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!!Measurement'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!!PbConfig'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!!Position'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!!Protein'!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Quantity'!$A$2:$BW$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!!QuantityInfo'!$A$2:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!!QuantityMatrix'!$A$2:$AW$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!!Reaction'!$A$2:$AU$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!!ReactionStoichiometry'!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Regulator'!$A$2:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!!Relation'!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!!Relationship'!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!!rxnconContingencyList'!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!!rxnconReactionList'!$A$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!!SparseMatrix'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!!SparseMatrixColumn'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!SparseMatrixOrdered'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!!SparseMatrixRow'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!!StoichiometricMatrix'!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -72,7 +72,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0">
+    <comment ref="R3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0">
+    <comment ref="S3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -354,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0">
+    <comment ref="T3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6340,9 +6340,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="262">
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 02:12:16' ObjTablesVersion='0.0.8'</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="263">
+  <si>
+    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-10-10 23:10:15'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 23:10:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6405,7 +6408,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 02:12:16' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 23:10:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6498,7 +6501,7 @@
     <t>C00008</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 23:10:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6513,7 +6516,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 23:10:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6534,7 +6537,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 23:10:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6549,7 +6552,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 23:10:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6579,7 +6582,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 23:10:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6615,7 +6618,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 23:10:16' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6627,7 +6630,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 23:10:16' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6636,16 +6639,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 23:10:16' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 23:10:16' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 23:10:16' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -6846,7 +6849,7 @@
     <t>...</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 23:10:16' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -6864,7 +6867,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 23:10:16' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -6903,7 +6906,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 23:10:16' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -6999,7 +7002,7 @@
     <t>R01015</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 23:10:16' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7011,7 +7014,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 23:10:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7023,7 +7026,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 23:10:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7038,13 +7041,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 23:10:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 23:10:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7053,13 +7056,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 23:10:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 23:10:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7068,19 +7071,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 23:10:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 02:12:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 23:10:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 02:12:18' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 23:10:17' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7101,7 +7104,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 02:12:18' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 23:10:18' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -7499,10 +7502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -7537,132 +7540,156 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.01" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:T2"/>
+  <autoFilter ref="A3:T3"/>
   <dataValidations count="20">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceName" error="Reference title, authors, etc. (as free text)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceName" prompt="Reference title, authors, etc. (as free text)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferencePubMed" error="Reference PubMed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferencePubMed" prompt="Reference PubMed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceDOI" error="Reference DOI&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceDOI" prompt="Reference DOI&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Description" error="Description of the row element&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Description" prompt="Description of the row element&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E2:E3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Entity name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Entity name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F2:F3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MiriamAnnotations" error="Entity ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="MiriamAnnotations" prompt="Entity ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Biochemical type of entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Type" prompt="Biochemical type of entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Symbol" error="Short symbol (e.g. gene symbol)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Symbol" prompt="Short symbol (e.g. gene symbol)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I2:I3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionX" error="x coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionX" prompt="x coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="J2:J3">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceName" error="Reference title, authors, etc. (as free text)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceName" prompt="Reference title, authors, etc. (as free text)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferencePubMed" error="Reference PubMed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferencePubMed" prompt="Reference PubMed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C3:C4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceDOI" error="Reference DOI&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceDOI" prompt="Reference DOI&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D3:D4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Description" error="Description of the row element&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Description" prompt="Description of the row element&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E3:E4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Entity name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Entity name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F3:F4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MiriamAnnotations" error="Entity ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="MiriamAnnotations" prompt="Entity ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G3:G4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Biochemical type of entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Type" prompt="Biochemical type of entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H3:H4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Symbol" error="Short symbol (e.g. gene symbol)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Symbol" prompt="Short symbol (e.g. gene symbol)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I3:I4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionX" error="x coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionX" prompt="x coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="J3:J4">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionY" error="y coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionY" prompt="y coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="K2:K3">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionY" error="y coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionY" prompt="y coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="K3:K4">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Compartment shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Compartment shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L2:L3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBML:compartment:id" error="SBML compartment ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBML:compartment:id" prompt="SBML compartment ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="M2:M3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment" error="Surrounding compartment (short)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment" prompt="Surrounding compartment (short)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="N2:N3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment:SBML:compar ..." error="Surrounding compartment (name)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment:SBML:compar ..." prompt="Surrounding compartment (name)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="O2:O3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Size" error="Compartment size&#10;&#10;Value must be a float or blank." promptTitle="Size" prompt="Compartment size&#10;&#10;Enter a float or blank." sqref="P2:P3">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Compartment shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Compartment shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L3:L4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBML:compartment:id" error="SBML compartment ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBML:compartment:id" prompt="SBML compartment ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="M3:M4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment" error="Surrounding compartment (short)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment" prompt="Surrounding compartment (short)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="N3:N4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment:SBML:compar ..." error="Surrounding compartment (name)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment:SBML:compar ..." prompt="Surrounding compartment (name)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="O3:O4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Size" error="Compartment size&#10;&#10;Value must be a float or blank." promptTitle="Size" prompt="Compartment size&#10;&#10;Enter a float or blank." sqref="P3:P4">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unit" error="Physical unit&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Unit" prompt="Physical unit&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="Q2:Q3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBOTerm" error="SBO term of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBOTerm" prompt="SBO term of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="R2:R3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="S2:S3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers:sbo.go" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers:sbo.go" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="T2:T3">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unit" error="Physical unit&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Unit" prompt="Physical unit&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="Q3:Q4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBOTerm" error="SBO term of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBOTerm" prompt="SBO term of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="R3:R4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="S3:S4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers:sbo.go" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers:sbo.go" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="T3:T4">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
@@ -7688,20 +7715,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7742,7 +7769,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7761,49 +7788,49 @@
     </row>
     <row r="2" spans="1:15" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -7882,7 +7909,7 @@
   <sheetData>
     <row r="1" spans="1:75" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7961,229 +7988,229 @@
     </row>
     <row r="2" spans="1:75" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BI2" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BJ2" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BK2" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BL2" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BM2" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BN2" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BO2" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BP2" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BQ2" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="BR2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BS2" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BT2" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BU2" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BV2" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BW2" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:75" ht="15.01" customHeight="1">
@@ -8199,13 +8226,13 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q3" s="4">
         <v>156</v>
@@ -8217,12 +8244,12 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
@@ -8234,11 +8261,11 @@
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
@@ -8292,13 +8319,13 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="4">
         <v>0.96</v>
@@ -8310,12 +8337,12 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -8327,11 +8354,11 @@
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AL4" s="4"/>
       <c r="AM4" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
@@ -8385,13 +8412,13 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="4">
         <v>0.13</v>
@@ -8403,12 +8430,12 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
@@ -8420,11 +8447,11 @@
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
@@ -8478,13 +8505,13 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q6" s="4">
         <v>1.5</v>
@@ -8496,12 +8523,12 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
@@ -8513,11 +8540,11 @@
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL6" s="4"/>
       <c r="AM6" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
@@ -8834,7 +8861,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8857,61 +8884,61 @@
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -9004,7 +9031,7 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9057,151 +9084,151 @@
     </row>
     <row r="2" spans="1:49" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="AE2" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:49" ht="15.01" customHeight="1">
@@ -9233,7 +9260,7 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
@@ -9288,7 +9315,7 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
@@ -9506,7 +9533,7 @@
   <sheetData>
     <row r="1" spans="1:47" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9557,145 +9584,145 @@
     </row>
     <row r="2" spans="1:47" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="AD2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="15.01" customHeight="1">
@@ -9712,13 +9739,13 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -9761,7 +9788,7 @@
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
       <c r="AN3" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
@@ -9773,7 +9800,7 @@
     </row>
     <row r="4" spans="1:47" ht="15.01" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -9836,13 +9863,13 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -9885,7 +9912,7 @@
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
@@ -10066,7 +10093,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10076,22 +10103,22 @@
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -10139,7 +10166,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10160,55 +10187,55 @@
     </row>
     <row r="2" spans="1:17" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -10291,7 +10318,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10305,34 +10332,34 @@
     </row>
     <row r="2" spans="1:10" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -10393,7 +10420,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10404,25 +10431,25 @@
     </row>
     <row r="2" spans="1:7" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -10474,7 +10501,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10513,109 +10540,109 @@
     </row>
     <row r="2" spans="1:35" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15.01" customHeight="1">
@@ -10625,7 +10652,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -10633,10 +10660,10 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -10657,7 +10684,7 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
@@ -10674,7 +10701,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -10682,10 +10709,10 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -10706,7 +10733,7 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
@@ -10723,7 +10750,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -10731,10 +10758,10 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -10755,7 +10782,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
@@ -10904,20 +10931,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -10957,16 +10984,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -11002,20 +11029,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -11057,16 +11084,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -11102,7 +11129,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11111,19 +11138,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -11168,7 +11195,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11180,28 +11207,28 @@
     </row>
     <row r="2" spans="1:8" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -11256,7 +11283,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11272,40 +11299,40 @@
     </row>
     <row r="2" spans="1:12" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -11372,7 +11399,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11381,19 +11408,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -11438,7 +11465,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11461,61 +11488,61 @@
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -11604,7 +11631,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11614,22 +11641,22 @@
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -11677,7 +11704,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11703,70 +11730,70 @@
     </row>
     <row r="2" spans="1:22" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -11864,7 +11891,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11881,43 +11908,43 @@
     </row>
     <row r="2" spans="1:13" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -11990,7 +12017,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11999,19 +12026,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -12056,16 +12083,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/examples/sbtab-sbml/simple_examples/2.xlsx
+++ b/examples/sbtab-sbml/simple_examples/2.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="263">
   <si>
-    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-10-10 23:10:15'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 23:10:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2020-03-05 18:10:34'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6408,7 +6408,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 23:10:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6501,7 +6501,7 @@
     <t>C00008</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 23:10:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6516,7 +6516,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 23:10:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6537,7 +6537,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 23:10:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6552,7 +6552,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 23:10:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6582,7 +6582,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 23:10:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6618,7 +6618,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 23:10:16' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6630,7 +6630,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 23:10:16' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6639,16 +6639,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 23:10:16' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 23:10:16' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 23:10:16' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -6849,7 +6849,7 @@
     <t>...</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 23:10:16' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -6867,7 +6867,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 23:10:16' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -6906,7 +6906,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 23:10:16' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -6987,22 +6987,22 @@
     <t>R00658</t>
   </si>
   <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>F16P + H2O &lt;=&gt; F6P + Pi</t>
+  </si>
+  <si>
+    <t>R01015</t>
+  </si>
+  <si>
     <t>% That's a comment.</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>F16P + H2O &lt;=&gt; F6P + Pi</t>
-  </si>
-  <si>
-    <t>R01015</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 23:10:16' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7014,7 +7014,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 23:10:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7026,7 +7026,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 23:10:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7041,13 +7041,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 23:10:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 23:10:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7056,13 +7056,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 23:10:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 23:10:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7071,19 +7071,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 23:10:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 23:10:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2020-03-05 18:10:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 23:10:17' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2020-03-05 18:10:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7104,7 +7104,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 23:10:18' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2020-03-05 18:10:35' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -7626,7 +7626,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A3:T3"/>
   <dataValidations count="20">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A4">
@@ -7732,7 +7732,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Element" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Element" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -7834,7 +7834,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:O2"/>
   <dataValidations count="15">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -8586,7 +8586,7 @@
       <c r="BW6" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:BW6"/>
   <dataValidations count="75">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A6">
@@ -8942,7 +8942,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:S2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="QuantityType" error="QuantityType (e.g. from SBO)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="QuantityType" prompt="QuantityType (e.g. from SBO)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -9342,7 +9342,7 @@
       <c r="AW4" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AW4"/>
   <dataValidations count="49">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A4">
@@ -9799,9 +9799,7 @@
       <c r="AU3" s="4"/>
     </row>
     <row r="4" spans="1:47" ht="15.01" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>215</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9813,20 +9811,36 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
+      <c r="U4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
+      <c r="Z4" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -9835,12 +9849,20 @@
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
+      <c r="AI4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="AL4" s="4"/>
       <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
+      <c r="AN4" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
@@ -9863,14 +9885,10 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>218</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -9911,9 +9929,7 @@
       </c>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
-      <c r="AN5" s="4" t="s">
-        <v>219</v>
-      </c>
+      <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
@@ -9923,7 +9939,7 @@
       <c r="AU5" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AU5"/>
   <dataValidations count="47">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A5">
@@ -10122,7 +10138,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:F2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Identifier shortname of the reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Identifier shortname of the reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -10239,7 +10255,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:Q2"/>
   <dataValidations count="17">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -10363,7 +10379,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:J2"/>
   <dataValidations count="10">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -10453,7 +10469,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:G2"/>
   <dataValidations count="7">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -10793,7 +10809,7 @@
       <c r="AI5" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AI5"/>
   <dataValidations count="35">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A5">
@@ -10948,7 +10964,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -10997,7 +11013,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnID" error="Column identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnID" prompt="Column identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -11046,7 +11062,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowNumber" error="Number of row&#10;&#10;Value must be an integer." promptTitle="RowNumber" prompt="Number of row&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -11097,7 +11113,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -11154,7 +11170,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReactionID" error="Reaction shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReactionID" prompt="Reaction shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -11232,7 +11248,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:H2"/>
   <dataValidations count="8">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UID:Contingency" error="ID for contingency&#10;&#10;Value must be an integer." promptTitle="UID:Contingency" prompt="ID for contingency&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -11336,7 +11352,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:L2"/>
   <dataValidations count="12">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="ID for reaction&#10;&#10;Value must be an integer." promptTitle="ID" prompt="ID for reaction&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -11424,7 +11440,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentName" error="Name of component (table, column, attribute to be defined)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentName" prompt="Name of component (table, column, attribute to be defined)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -11546,7 +11562,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:S2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -11660,7 +11676,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:F2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of objective in FBC package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of objective in FBC package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -11797,7 +11813,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:V2"/>
   <dataValidations count="22">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -11948,7 +11964,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:M2"/>
   <dataValidations count="13">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of layout package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of layout package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -12042,7 +12058,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sample" error="Measurement value shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Sample" prompt="Measurement value shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -12096,7 +12112,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Option" error="Which option is addressed&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Option" prompt="Which option is addressed&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">

--- a/examples/sbtab-sbml/simple_examples/2.xlsx
+++ b/examples/sbtab-sbml/simple_examples/2.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="263">
   <si>
-    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2020-03-05 18:10:34'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 13:01:01'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6408,7 +6408,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6501,7 +6501,7 @@
     <t>C00008</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6516,7 +6516,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6537,7 +6537,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6552,7 +6552,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6582,7 +6582,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6618,7 +6618,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6630,7 +6630,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6639,16 +6639,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -6849,7 +6849,7 @@
     <t>...</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -6867,7 +6867,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -6906,7 +6906,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7002,7 +7002,7 @@
     <t>% That's a comment.</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7014,7 +7014,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7026,7 +7026,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7041,13 +7041,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7056,13 +7056,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7071,19 +7071,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2020-03-05 18:10:34' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2020-03-05 18:10:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2020-03-05 18:10:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7104,7 +7104,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2020-03-05 18:10:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>

--- a/examples/sbtab-sbml/simple_examples/2.xlsx
+++ b/examples/sbtab-sbml/simple_examples/2.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="263">
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 13:01:01'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 15:31:21'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 15:31:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6408,7 +6408,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 15:31:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6501,7 +6501,7 @@
     <t>C00008</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 15:31:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6516,7 +6516,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 15:31:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6537,7 +6537,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 15:31:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6552,7 +6552,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 15:31:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6582,7 +6582,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 15:31:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6618,7 +6618,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 15:31:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6630,7 +6630,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 15:31:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6639,16 +6639,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 15:31:21' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 13:01:01' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 15:31:21' objTablesVersion='0.0.8' tableFormat='row'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 15:31:22' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -6849,7 +6849,7 @@
     <t>...</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 15:31:22' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -6867,7 +6867,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 15:31:22' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -6906,7 +6906,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 15:31:22' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7002,7 +7002,7 @@
     <t>% That's a comment.</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 15:31:22' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7014,7 +7014,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 15:31:22' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7026,7 +7026,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 15:31:22' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7041,13 +7041,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 15:31:22' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 15:31:22' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7056,13 +7056,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 15:31:22' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 15:31:22' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7071,19 +7071,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 15:31:22' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 15:31:22' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 15:31:22' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7104,7 +7104,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 13:01:02' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 15:31:22' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
